--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value133.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value133.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9309753328336953</v>
+        <v>0.7281404137611389</v>
       </c>
       <c r="B1">
-        <v>1.696273235967178</v>
+        <v>3.062138319015503</v>
       </c>
       <c r="C1">
-        <v>3.516076671041956</v>
+        <v>3.798005104064941</v>
       </c>
       <c r="D1">
-        <v>2.583467606377932</v>
+        <v>1.201214194297791</v>
       </c>
       <c r="E1">
-        <v>1.062715574251674</v>
+        <v>0.944490909576416</v>
       </c>
     </row>
   </sheetData>
